--- a/public/seeders/sms_notifications.xlsx
+++ b/public/seeders/sms_notifications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farosh3\Videos\AnyDesk\saas-boilerplate\storage\tenantabmasoft\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farosh3\Videos\AnyDesk\saas-boilerplate\public\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="324">
   <si>
     <t>Notification</t>
   </si>
@@ -1390,12 +1390,15 @@
   <si>
     <t>Staff</t>
   </si>
+  <si>
+    <t>type of trigger</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1445,6 +1448,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1487,7 +1498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1561,6 +1572,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1783,8 +1797,8 @@
   </sheetPr>
   <dimension ref="A1:AC1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D71" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1793,9 +1807,10 @@
     <col min="2" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="11" width="34.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1844,9 @@
       <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="27" t="s">
+        <v>323</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -1872,7 +1889,9 @@
         <v>96</v>
       </c>
       <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="L2" s="24">
+        <v>2</v>
+      </c>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
@@ -1925,7 +1944,9 @@
       <c r="K3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="24">
+        <v>2</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1978,7 +1999,9 @@
       <c r="K4" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="24">
+        <v>2</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -2031,7 +2054,9 @@
       <c r="K5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="24">
+        <v>2</v>
+      </c>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -2078,7 +2103,9 @@
       <c r="K6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="24">
+        <v>2</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -2131,7 +2158,9 @@
       <c r="K7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="24">
+        <v>2</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -2184,7 +2213,9 @@
       <c r="K8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="24">
+        <v>2</v>
+      </c>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
@@ -2237,7 +2268,9 @@
       <c r="K9" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="24">
+        <v>2</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -2290,7 +2323,9 @@
       <c r="K10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="24">
+        <v>2</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -2343,7 +2378,9 @@
       <c r="K11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="24">
+        <v>2</v>
+      </c>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
@@ -2396,7 +2433,9 @@
       <c r="K12" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="24">
+        <v>2</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="9"/>
@@ -2447,7 +2486,9 @@
       <c r="K13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="24">
+        <v>2</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -2500,7 +2541,9 @@
       <c r="K14" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="24">
+        <v>2</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -2553,7 +2596,9 @@
       <c r="K15" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="24">
+        <v>2</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -2606,7 +2651,9 @@
       <c r="K16" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="24">
+        <v>2</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -2659,7 +2706,9 @@
       <c r="K17" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="24">
+        <v>2</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -2712,7 +2761,9 @@
       <c r="K18" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="24">
+        <v>2</v>
+      </c>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -2765,7 +2816,9 @@
       <c r="K19" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="24">
+        <v>2</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -2818,7 +2871,9 @@
       <c r="K20" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="24">
+        <v>2</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -2871,7 +2926,9 @@
       <c r="K21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="5"/>
+      <c r="L21" s="24">
+        <v>2</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -2924,7 +2981,9 @@
       <c r="K22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="24">
+        <v>2</v>
+      </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -2977,7 +3036,9 @@
       <c r="K23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="5"/>
+      <c r="L23" s="24">
+        <v>2</v>
+      </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -3030,7 +3091,9 @@
       <c r="K24" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="17"/>
+      <c r="L24" s="24">
+        <v>2</v>
+      </c>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
@@ -3071,7 +3134,9 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="5"/>
+      <c r="L25" s="24">
+        <v>2</v>
+      </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -3124,7 +3189,9 @@
       <c r="K26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L26" s="5"/>
+      <c r="L26" s="24">
+        <v>2</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -3177,7 +3244,9 @@
       <c r="K27" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="L27" s="5"/>
+      <c r="L27" s="24">
+        <v>2</v>
+      </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -3230,7 +3299,9 @@
       <c r="K28" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="L28" s="5"/>
+      <c r="L28" s="24">
+        <v>2</v>
+      </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -3273,7 +3344,9 @@
       <c r="K29" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="24">
+        <v>2</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -3326,7 +3399,9 @@
       <c r="K30" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L30" s="5"/>
+      <c r="L30" s="24">
+        <v>2</v>
+      </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -3379,7 +3454,9 @@
       <c r="K31" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="L31" s="5"/>
+      <c r="L31" s="24">
+        <v>2</v>
+      </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -3432,7 +3509,9 @@
       <c r="K32" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="L32" s="5"/>
+      <c r="L32" s="24">
+        <v>2</v>
+      </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -3485,7 +3564,9 @@
       <c r="K33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L33" s="5"/>
+      <c r="L33" s="24">
+        <v>2</v>
+      </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -3538,7 +3619,9 @@
       <c r="K34" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="L34" s="5"/>
+      <c r="L34" s="24">
+        <v>2</v>
+      </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -3591,7 +3674,9 @@
       <c r="K35" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="L35" s="5"/>
+      <c r="L35" s="24">
+        <v>2</v>
+      </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -3644,7 +3729,9 @@
       <c r="K36" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L36" s="5"/>
+      <c r="L36" s="24">
+        <v>2</v>
+      </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -3697,7 +3784,9 @@
       <c r="K37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="5"/>
+      <c r="L37" s="24">
+        <v>2</v>
+      </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
@@ -3750,7 +3839,9 @@
       <c r="K38" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L38" s="5"/>
+      <c r="L38" s="24">
+        <v>2</v>
+      </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
@@ -3803,7 +3894,9 @@
       <c r="K39" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="5"/>
+      <c r="L39" s="24">
+        <v>2</v>
+      </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -3856,7 +3949,9 @@
       <c r="K40" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="L40" s="5"/>
+      <c r="L40" s="24">
+        <v>2</v>
+      </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -3909,7 +4004,9 @@
       <c r="K41" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="L41" s="5"/>
+      <c r="L41" s="24">
+        <v>2</v>
+      </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
@@ -3962,7 +4059,9 @@
       <c r="K42" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="L42" s="5"/>
+      <c r="L42" s="24">
+        <v>2</v>
+      </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -4015,7 +4114,9 @@
       <c r="K43" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L43" s="5"/>
+      <c r="L43" s="24">
+        <v>2</v>
+      </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -4068,7 +4169,9 @@
       <c r="K44" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="L44" s="5"/>
+      <c r="L44" s="24">
+        <v>2</v>
+      </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -4121,7 +4224,9 @@
       <c r="K45" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="L45" s="5"/>
+      <c r="L45" s="24">
+        <v>2</v>
+      </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
@@ -4174,7 +4279,9 @@
       <c r="K46" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="L46" s="5"/>
+      <c r="L46" s="24">
+        <v>2</v>
+      </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -4227,7 +4334,9 @@
       <c r="K47" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L47" s="5"/>
+      <c r="L47" s="24">
+        <v>2</v>
+      </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -4280,7 +4389,9 @@
       <c r="K48" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="5"/>
+      <c r="L48" s="24">
+        <v>2</v>
+      </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
@@ -4333,7 +4444,9 @@
       <c r="K49" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="5"/>
+      <c r="L49" s="24">
+        <v>2</v>
+      </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
@@ -4386,7 +4499,9 @@
       <c r="K50" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L50" s="17"/>
+      <c r="L50" s="24">
+        <v>2</v>
+      </c>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="17"/>
@@ -4439,7 +4554,9 @@
       <c r="K51" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L51" s="5"/>
+      <c r="L51" s="24">
+        <v>2</v>
+      </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
@@ -4492,7 +4609,9 @@
       <c r="K52" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L52" s="5"/>
+      <c r="L52" s="24">
+        <v>2</v>
+      </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
@@ -4545,7 +4664,9 @@
       <c r="K53" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L53" s="5"/>
+      <c r="L53" s="24">
+        <v>2</v>
+      </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -4598,7 +4719,9 @@
       <c r="K54" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L54" s="5"/>
+      <c r="L54" s="24">
+        <v>2</v>
+      </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
@@ -4651,7 +4774,9 @@
       <c r="K55" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L55" s="5"/>
+      <c r="L55" s="24">
+        <v>2</v>
+      </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -4704,7 +4829,9 @@
       <c r="K56" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="L56" s="5"/>
+      <c r="L56" s="24">
+        <v>2</v>
+      </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
@@ -4757,7 +4884,9 @@
       <c r="K57" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L57" s="5"/>
+      <c r="L57" s="24">
+        <v>2</v>
+      </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
@@ -4810,7 +4939,9 @@
       <c r="K58" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L58" s="5"/>
+      <c r="L58" s="24">
+        <v>2</v>
+      </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
@@ -4863,7 +4994,9 @@
       <c r="K59" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="L59" s="5"/>
+      <c r="L59" s="24">
+        <v>2</v>
+      </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
@@ -4916,7 +5049,9 @@
       <c r="K60" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="L60" s="5"/>
+      <c r="L60" s="24">
+        <v>2</v>
+      </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
@@ -4969,7 +5104,9 @@
       <c r="K61" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="L61" s="5"/>
+      <c r="L61" s="24">
+        <v>2</v>
+      </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
@@ -5022,7 +5159,9 @@
       <c r="K62" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="L62" s="5"/>
+      <c r="L62" s="24">
+        <v>2</v>
+      </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -5075,7 +5214,9 @@
       <c r="K63" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L63" s="5"/>
+      <c r="L63" s="24">
+        <v>2</v>
+      </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -5128,7 +5269,9 @@
       <c r="K64" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="L64" s="5"/>
+      <c r="L64" s="24">
+        <v>2</v>
+      </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
@@ -5181,7 +5324,9 @@
       <c r="K65" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="L65" s="5"/>
+      <c r="L65" s="24">
+        <v>2</v>
+      </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
@@ -5234,7 +5379,9 @@
       <c r="K66" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L66" s="5"/>
+      <c r="L66" s="24">
+        <v>2</v>
+      </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -5287,7 +5434,9 @@
       <c r="K67" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L67" s="5"/>
+      <c r="L67" s="24">
+        <v>2</v>
+      </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
@@ -5340,7 +5489,9 @@
       <c r="K68" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="L68" s="5"/>
+      <c r="L68" s="24">
+        <v>2</v>
+      </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
@@ -5393,7 +5544,9 @@
       <c r="K69" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="L69" s="5"/>
+      <c r="L69" s="24">
+        <v>2</v>
+      </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -5446,7 +5599,9 @@
       <c r="K70" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="L70" s="5"/>
+      <c r="L70" s="24">
+        <v>2</v>
+      </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
@@ -5499,7 +5654,9 @@
       <c r="K71" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L71" s="5"/>
+      <c r="L71" s="24">
+        <v>2</v>
+      </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
@@ -5552,7 +5709,9 @@
       <c r="K72" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="L72" s="5"/>
+      <c r="L72" s="24">
+        <v>2</v>
+      </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
@@ -35365,5 +35524,6 @@
   </sheetData>
   <autoFilter ref="A1:AB72"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>